--- a/数据整理/stocks/A股/深证主板/000539-粤电力A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000539-粤电力A.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1001,7 +1002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1012,17 +1013,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1032,13 +1053,633 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>012463</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时成长优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9041</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000652</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8495</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009857</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3902</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008966</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3452</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011740</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2635</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011550</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1242</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012084</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时睿弘一年定期开放混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011741</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>75.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012464</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时成长优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>75.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008967</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009858</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010076</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011551</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010077</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012085</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时睿弘一年定期开放混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>13</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>4.57</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000539-粤电力A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000539-粤电力A.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1626,7 +1627,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1637,17 +1638,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1657,14 +1678,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.13</v>
+          <t>012463</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时成长优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7940</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1673,13 +1716,195 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>008966</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3034</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012464</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时成长优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008967</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>13</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>4.57</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000539-粤电力A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000539-粤电力A.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>012463</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>博时成长优势混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>27.57</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>80.29</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.2296</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.16</v>
       </c>
     </row>
     <row r="3">
@@ -542,36 +500,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000652</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>博时裕隆灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>23.73</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>87.85</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.9872</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.13</v>
       </c>
     </row>
     <row r="4">
@@ -580,416 +516,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>213001</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>宝盈鸿利收益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>22.86</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.43</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.8001</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008966</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博时成长优选两年封闭运作灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>12.10</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>89.60</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.4767</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009857</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>博时价值臻选两年持有期灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>10.82</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>83.32</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.4469</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>010751</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>宝盈优质成长混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>7.99</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>78.55</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.3404</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010076</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>湘财长弘灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.20</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0711</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008967</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>博时成长优选两年封闭运作灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>89.60</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0489</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>012464</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>博时成长优势混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>80.29</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0477</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>010752</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>宝盈优质成长混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>78.55</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0460</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>013247</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>交银瑞卓三年持有期混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>83.32</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0380</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>007581</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>宝盈鸿利收益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>90.43</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0340</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>010077</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>湘财长弘灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.20</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0063</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.57</v>
       </c>
     </row>
   </sheetData>
@@ -998,6 +532,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012463</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时成长优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7940</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008966</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3034</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012464</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时成长优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008967</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1621,13 +1363,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1688,26 +1430,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19.80</t>
+          <t>27.57</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.92</t>
+          <t>80.29</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7940</t>
+          <t>1.2296</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1716,36 +1458,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008966</t>
+          <t>000652</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时成长优选两年封闭运作灵活配置混合A</t>
+          <t>博时裕隆灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.32</t>
+          <t>23.73</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.45</t>
+          <t>87.85</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3034</t>
+          <t>0.9872</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1754,36 +1496,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>012464</t>
+          <t>213001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时成长优势混合型证券投资基金C</t>
+          <t>宝盈鸿利收益灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>22.86</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.92</t>
+          <t>90.43</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0333</t>
+          <t>0.8001</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1792,120 +1534,378 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>008966</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4767</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009857</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4469</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010751</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3404</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010076</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>008967</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>博时成长优选两年封闭运作灵活配置混合C</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>88.45</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0264</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012464</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时成长优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010752</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013247</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>交银瑞卓三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>4</v>
       </c>
-      <c r="D2" t="n">
-        <v>1.16</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.13</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.57</v>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007581</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010077</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000539-粤电力A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000539-粤电力A.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>1.16</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>3.13</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>13</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>4.57</v>
       </c>
     </row>
@@ -532,6 +549,556 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009970</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通内需增长12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>56.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2776</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1246</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000017</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通可持续发展主题混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013238</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通均衡一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501026</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通多策略福享混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通多策略精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006522</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006968</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通行业龙头精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006967</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通行业龙头精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009649</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>58.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006523</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013239</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通均衡一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009650</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>58.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -739,7 +1306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1363,7 +1930,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000539-粤电力A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000539-粤电力A.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0.63</v>
+        <v>8.15</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>1.16</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>3.13</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>13</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>4.57</v>
       </c>
     </row>
@@ -549,6 +566,1314 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3297</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>720001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通价值动量混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0568</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001480</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通成长优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1222</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013430</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4724</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>530011</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信内生动力混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3144</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014915</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通匠心优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3129</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009970</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通内需增长12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>65.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2368</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1549</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001825</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信中国制造2025股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1491</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008983</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1154</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009062</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1115</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009063</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0947</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013238</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>财通均衡一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008984</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>财通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000017</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>财通可持续发展主题混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501026</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>财通多策略福享混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011543</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中加科瑞混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>26.11</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014380</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信中国制造2025股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001276</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>建信新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>70.13</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009856</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014916</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>财通匠心优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009140</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>永赢竞争力精选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013771</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中加龙头精选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013772</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中加龙头精选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008135</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华宸未来价值先锋混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.80</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009855</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006522</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>80.41</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>016282</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>建信内生动力混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006523</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>80.41</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006968</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>财通行业龙头精选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006967</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>财通行业龙头精选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013239</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>财通均衡一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011544</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中加科瑞混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>26.11</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1098,7 +2423,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1306,7 +2631,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1930,7 +3255,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
